--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/IE-DEA/8.112_b13/IE-DEA accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/IE-DEA/8.112_b13/IE-DEA accreditamento-checklist_V8.1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\IE-DEA\8.112_b13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\FSE 2.0 Accreditamento\IE-DEA\20230510_ko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D74476-EA16-4B71-B866-A2B473FD5175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E274FD25-81AD-4FC6-98E4-D4AF8B5FA4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhac5Bfe2/eqRhhNs6tiP2cbeOaDw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7miJ5q6lin92uR4dGqBDTK5wld7MLw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -57,14 +57,14 @@
   </commentList>
   <extLst>
     <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhmZKvc8VBK3sapGL5LoAo1BnJIKw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgI4tAJHRRh4+1F+yLzTnqqs0XPKg=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="928">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4042,6 +4042,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>Il software IE-DEA, a livello di inquadramento clinico, prevede la gestione anamnesi in modalità non strutturata.
+Per questa ragione il caso di test 17 non può essere eseguito.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT18_KO</t>
   </si>
   <si>
@@ -4049,11 +4053,19 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>Il software IE-DEA, a livello di inquadramento clinico, prevede la gestione anamnesi in modalità non strutturata.
+Per questa ragione il caso di test 18 non può essere eseguito.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT19_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il software IE-DEA, gestisce la gesione delle allergie in modalità non strutturata.
+Per questa ragione il caso di test 19 non può essere eseguito.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
@@ -4080,6 +4092,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>Il software IE-DEA, non gestisce le complicanzioni in un campo dedicato.
+Per questa ragione il caso di test 21 non può essere eseguito.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT22_KO</t>
   </si>
   <si>
@@ -4205,6 +4221,10 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Il software IE-DEA, gestisce la gesione delle allergie in modalità non strutturata.
+Per questa ragione il caso di test 29 non può essere eseguito.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT1</t>
@@ -4724,24 +4744,16 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>Il software IE-DEA, a livello di inquadramento clinico, prevede la gestione anamnesi in modalità non strutturata.
-Per questa ragione il caso di test 17 non può essere eseguito.</t>
-  </si>
-  <si>
-    <t>Il software IE-DEA, a livello di inquadramento clinico, prevede la gestione anamnesi in modalità non strutturata.
-Per questa ragione il caso di test 18 non può essere eseguito.</t>
-  </si>
-  <si>
-    <t>Il software IE-DEA, gestisce la gesione delle allergie in modalità non strutturata.
-Per questa ragione il caso di test 19 non può essere eseguito.</t>
-  </si>
-  <si>
-    <t>Il software IE-DEA, non gestisce le complicanzioni in un campo dedicato.
-Per questa ragione il caso di test 21 non può essere eseguito.</t>
-  </si>
-  <si>
-    <t>Il software IE-DEA, gestisce la gesione delle allergie in modalità non strutturata.
-Per questa ragione il caso di test 29 non può essere eseguito.</t>
+    <t>d51522473bdb2958</t>
+  </si>
+  <si>
+    <t>2023-05-05T16:23:01.883Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.0c02c66521a1be7bb92ae8333663b5699d8a59c6734911962816e616de64c8b0.56dd7d1ca1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9f3597666e2c31c6</t>
   </si>
 </sst>
 </file>
@@ -5157,10 +5169,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5179,6 +5187,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -5474,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7636,11 +7648,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="E305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J207" sqref="J207:J327"/>
+      <selection pane="bottomRight" activeCell="A320" sqref="A320:XFD320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7679,14 +7691,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="36"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7704,14 +7716,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="36"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7729,12 +7741,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7753,12 +7765,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="36"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7776,8 +7788,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -18096,13 +18108,13 @@
         <v>45051</v>
       </c>
       <c r="G306" s="29" t="s">
-        <v>453</v>
+        <v>925</v>
       </c>
       <c r="H306" s="29" t="s">
-        <v>454</v>
+        <v>924</v>
       </c>
       <c r="I306" s="29" t="s">
-        <v>455</v>
+        <v>926</v>
       </c>
       <c r="J306" s="25" t="s">
         <v>456</v>
@@ -18716,7 +18728,7 @@
         <v>460</v>
       </c>
       <c r="K317" s="25" t="s">
-        <v>919</v>
+        <v>729</v>
       </c>
       <c r="L317" s="25"/>
       <c r="M317" s="25"/>
@@ -18741,10 +18753,10 @@
         <v>76</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -18754,7 +18766,7 @@
         <v>460</v>
       </c>
       <c r="K318" s="25" t="s">
-        <v>920</v>
+        <v>732</v>
       </c>
       <c r="L318" s="25"/>
       <c r="M318" s="25"/>
@@ -18779,10 +18791,10 @@
         <v>76</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -18792,7 +18804,7 @@
         <v>460</v>
       </c>
       <c r="K319" s="25" t="s">
-        <v>921</v>
+        <v>735</v>
       </c>
       <c r="L319" s="25"/>
       <c r="M319" s="25"/>
@@ -18817,22 +18829,22 @@
         <v>76</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F320" s="23">
         <v>45051</v>
       </c>
       <c r="G320" s="29" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="H320" s="29" t="s">
-        <v>735</v>
+        <v>927</v>
       </c>
       <c r="I320" s="29" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="J320" s="25" t="s">
         <v>456</v>
@@ -18856,7 +18868,7 @@
       </c>
       <c r="R320" s="26"/>
       <c r="S320" s="27" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="T320" s="28" t="s">
         <v>55</v>
@@ -18873,10 +18885,10 @@
         <v>76</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -18886,7 +18898,7 @@
         <v>460</v>
       </c>
       <c r="K321" s="25" t="s">
-        <v>922</v>
+        <v>743</v>
       </c>
       <c r="L321" s="25"/>
       <c r="M321" s="25"/>
@@ -18911,22 +18923,22 @@
         <v>76</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F322" s="23">
         <v>45051</v>
       </c>
       <c r="G322" s="29" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="H322" s="29" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="I322" s="29" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J322" s="25" t="s">
         <v>456</v>
@@ -18950,7 +18962,7 @@
       </c>
       <c r="R322" s="26"/>
       <c r="S322" s="27" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="T322" s="28" t="s">
         <v>55</v>
@@ -18967,22 +18979,22 @@
         <v>76</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F323" s="23">
         <v>45051</v>
       </c>
       <c r="G323" s="29" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="H323" s="29" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="I323" s="29" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="J323" s="25" t="s">
         <v>456</v>
@@ -19006,7 +19018,7 @@
       </c>
       <c r="R323" s="26"/>
       <c r="S323" s="27" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="T323" s="28" t="s">
         <v>55</v>
@@ -19023,10 +19035,10 @@
         <v>76</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -19036,7 +19048,7 @@
         <v>460</v>
       </c>
       <c r="K324" s="25" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="L324" s="25"/>
       <c r="M324" s="25"/>
@@ -19061,22 +19073,22 @@
         <v>76</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E325" s="22" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F325" s="23">
         <v>45051</v>
       </c>
       <c r="G325" s="29" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="H325" s="29" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="I325" s="29" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="J325" s="25" t="s">
         <v>456</v>
@@ -19100,7 +19112,7 @@
       </c>
       <c r="R325" s="26"/>
       <c r="S325" s="27" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="T325" s="28" t="s">
         <v>55</v>
@@ -19117,22 +19129,22 @@
         <v>76</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F326" s="23">
         <v>45051</v>
       </c>
       <c r="G326" s="29" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H326" s="29" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="I326" s="29" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="J326" s="25" t="s">
         <v>456</v>
@@ -19156,7 +19168,7 @@
       </c>
       <c r="R326" s="26"/>
       <c r="S326" s="27" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="T326" s="28" t="s">
         <v>55</v>
@@ -19173,22 +19185,22 @@
         <v>76</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F327" s="23">
         <v>45051</v>
       </c>
       <c r="G327" s="29" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H327" s="29" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="I327" s="29" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="J327" s="25" t="s">
         <v>456</v>
@@ -19212,7 +19224,7 @@
       </c>
       <c r="R327" s="26"/>
       <c r="S327" s="27" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="T327" s="28" t="s">
         <v>55</v>
@@ -19229,10 +19241,10 @@
         <v>76</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -19242,7 +19254,7 @@
         <v>460</v>
       </c>
       <c r="K328" s="25" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="L328" s="25"/>
       <c r="M328" s="25"/>
@@ -19267,10 +19279,10 @@
         <v>76</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -19280,7 +19292,7 @@
         <v>460</v>
       </c>
       <c r="K329" s="25" t="s">
-        <v>923</v>
+        <v>782</v>
       </c>
       <c r="L329" s="25"/>
       <c r="M329" s="25"/>
@@ -19305,10 +19317,10 @@
         <v>81</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -19339,10 +19351,10 @@
         <v>81</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -19373,10 +19385,10 @@
         <v>81</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -19407,10 +19419,10 @@
         <v>81</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -19441,10 +19453,10 @@
         <v>81</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -19475,10 +19487,10 @@
         <v>81</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -19509,10 +19521,10 @@
         <v>81</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -19543,10 +19555,10 @@
         <v>81</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -19577,10 +19589,10 @@
         <v>81</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -19611,10 +19623,10 @@
         <v>81</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -19645,10 +19657,10 @@
         <v>81</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -19679,10 +19691,10 @@
         <v>81</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E341" s="22" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -19713,10 +19725,10 @@
         <v>81</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -19747,10 +19759,10 @@
         <v>81</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -19781,10 +19793,10 @@
         <v>81</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -19815,10 +19827,10 @@
         <v>81</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -19849,10 +19861,10 @@
         <v>81</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -19883,10 +19895,10 @@
         <v>81</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -19917,10 +19929,10 @@
         <v>81</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -19951,10 +19963,10 @@
         <v>81</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -19985,10 +19997,10 @@
         <v>81</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -20019,10 +20031,10 @@
         <v>81</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -20053,10 +20065,10 @@
         <v>81</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -20087,10 +20099,10 @@
         <v>86</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -20121,10 +20133,10 @@
         <v>86</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -20155,10 +20167,10 @@
         <v>86</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -20189,10 +20201,10 @@
         <v>86</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -20223,10 +20235,10 @@
         <v>86</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -20257,10 +20269,10 @@
         <v>86</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -20291,10 +20303,10 @@
         <v>86</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -20325,10 +20337,10 @@
         <v>86</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -20359,10 +20371,10 @@
         <v>86</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -20393,10 +20405,10 @@
         <v>86</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -20427,10 +20439,10 @@
         <v>86</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -20461,10 +20473,10 @@
         <v>86</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -20495,10 +20507,10 @@
         <v>86</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -20529,10 +20541,10 @@
         <v>86</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -20563,10 +20575,10 @@
         <v>86</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -20597,10 +20609,10 @@
         <v>86</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -20631,10 +20643,10 @@
         <v>86</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -20665,10 +20677,10 @@
         <v>86</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -20699,10 +20711,10 @@
         <v>86</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -20733,10 +20745,10 @@
         <v>86</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="E372" s="22" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -20767,10 +20779,10 @@
         <v>86</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -20801,10 +20813,10 @@
         <v>49</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -30497,10 +30509,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -30508,13 +30520,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -30522,13 +30534,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -30536,13 +30548,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -30550,13 +30562,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -30564,13 +30576,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
@@ -30578,13 +30590,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
@@ -30592,13 +30604,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
@@ -30606,27 +30618,27 @@
         <v>86</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C10" s="32">
         <v>191</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -30634,13 +30646,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C11" s="32">
         <v>192</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -30648,13 +30660,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C12" s="32">
         <v>208</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -30662,13 +30674,13 @@
         <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C13" s="32">
         <v>224</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -30676,13 +30688,13 @@
         <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C14" s="32">
         <v>240</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -30690,13 +30702,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C15" s="32">
         <v>256</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -30704,13 +30716,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C16" s="32">
         <v>272</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -30718,13 +30730,13 @@
         <v>81</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C17" s="32">
         <v>288</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
@@ -30732,13 +30744,13 @@
         <v>86</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C18" s="32">
         <v>304</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -30746,13 +30758,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C19" s="32">
         <v>193</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -30760,13 +30772,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C20" s="32">
         <v>209</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -30774,13 +30786,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C21" s="32">
         <v>225</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -30788,13 +30800,13 @@
         <v>66</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C22" s="32">
         <v>241</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
@@ -30802,13 +30814,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C23" s="32">
         <v>257</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -30816,13 +30828,13 @@
         <v>76</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C24" s="32">
         <v>273</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -30830,13 +30842,13 @@
         <v>81</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C25" s="32">
         <v>289</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
@@ -30844,13 +30856,13 @@
         <v>86</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C26" s="32">
         <v>305</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
@@ -30858,13 +30870,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C27" s="32">
         <v>194</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -30872,13 +30884,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C28" s="32">
         <v>210</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -30886,13 +30898,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C29" s="32">
         <v>226</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -30900,13 +30912,13 @@
         <v>66</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C30" s="32">
         <v>242</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
@@ -30914,13 +30926,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C31" s="32">
         <v>258</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -30928,13 +30940,13 @@
         <v>76</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C32" s="32">
         <v>274</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
@@ -30942,13 +30954,13 @@
         <v>81</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C33" s="32">
         <v>290</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
@@ -30956,13 +30968,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C34" s="32">
         <v>306</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -30970,7 +30982,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C35" s="32">
         <v>195</v>
@@ -30984,7 +30996,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C36" s="32">
         <v>211</v>
@@ -30998,7 +31010,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C37" s="32">
         <v>227</v>
@@ -31012,7 +31024,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C38" s="32">
         <v>243</v>
@@ -31026,7 +31038,7 @@
         <v>71</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C39" s="32">
         <v>259</v>
@@ -31040,7 +31052,7 @@
         <v>76</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C40" s="32">
         <v>275</v>
@@ -31054,7 +31066,7 @@
         <v>81</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C41" s="32">
         <v>291</v>
@@ -31068,7 +31080,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C42" s="32">
         <v>307</v>
@@ -31082,7 +31094,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C43" s="32">
         <v>196</v>
@@ -31096,7 +31108,7 @@
         <v>56</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C44" s="32">
         <v>212</v>
@@ -31110,7 +31122,7 @@
         <v>61</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C45" s="32">
         <v>228</v>
@@ -31124,7 +31136,7 @@
         <v>66</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C46" s="32">
         <v>244</v>
@@ -31138,7 +31150,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C47" s="32">
         <v>260</v>
@@ -31152,7 +31164,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C48" s="32">
         <v>276</v>
@@ -31166,7 +31178,7 @@
         <v>81</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C49" s="32">
         <v>292</v>
@@ -31180,7 +31192,7 @@
         <v>86</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="C50" s="32">
         <v>308</v>
@@ -32173,7 +32185,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>460</v>
